--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -448,10 +448,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>DueDateOfNextDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://jpfhir.jp/fhir/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+    <t>dueDateOfNextDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/StructureDefinition/JP_Immunization_DueDateOfNextDose}
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
 </t>
   </si>
   <si>
-    <t>ManufacturedDate</t>
+    <t>manufacturedDate</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate}
@@ -478,7 +478,7 @@
     <t>ワクチンが製造された年月日</t>
   </si>
   <si>
-    <t>CertificatedDate</t>
+    <t>certificatedDate</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_CertificatedDate}
@@ -1699,7 +1699,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -1698,40 +1698,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="147.5546875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -261,8 +261,8 @@
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,10 +290,10 @@
     <t>このResourceに対する論理ID</t>
   </si>
   <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -306,16 +306,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -326,13 +326,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,19 +345,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -377,13 +377,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -403,13 +403,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -441,8 +441,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>dueDateOfNextDose</t>
@@ -495,17 +495,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -518,10 +519,10 @@
 </t>
   </si>
   <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
+    <t>ビジネス識別子 / Business identifier</t>
+  </si>
+  <si>
+    <t>この予防接種記録に割り当てられた一意の識別子。 / A unique identifier assigned to this immunization record.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -539,13 +540,13 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t>completed | entered-in-error | not-done</t>
+    <t>完了|エラーに入った|まだ完成してない / completed | entered-in-error | not-done</t>
   </si>
   <si>
     <t>予防接種記録の現在の状態を示すコード</t>
   </si>
   <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>通常、予防接種が完了したか、行われていないことを示すように設定されます。この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -576,16 +577,16 @@
     <t>実施しなかった理由</t>
   </si>
   <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+    <t>予防接種イベントが実行されなかった理由を示します。 / Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>これは通常、「Not-Done」のステータスにのみ使用されます。予防接種イベントを実行する理由は、ここではなくReasonCodeでキャプチャされます。 / This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>The reason why a vaccine was not administered.</t>
+    <t>ワクチンが投与されなかった理由。 / The reason why a vaccine was not administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
@@ -609,7 +610,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCoceableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
+    <t>投与されたワクチン製品のコード。 / The code for vaccine product administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
@@ -693,7 +694,7 @@
     <t>ワクチンを接種した日あるいは接種予定だった日。</t>
   </si>
   <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+    <t>予防接種が与えられた場合、特定の日付と時間を常に把握する必要があります。予防接種が患者を報告する場合、特定の日付はわからないかもしれません。部分的な日付は許可されていますが、成人患者は小児期の予防接種が与えられた年を思い出すことができないかもしれません。正確な日付は常に望ましいですが、正確な日付が不明な場合、文字列データ型の使用は許容されます。少数のワクチン（たとえば、生きた経口腸チフスワクチンなど）は、一連の患者の自己投与量として、期間にわたって投与されます。このような場合、多くの場合、最初の用量（通常はプロバイダーの監督付き用量）のみが、最初の用量の日付/時刻を示す発生で記録されます。 / When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -721,7 +722,7 @@
     <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
   </si>
   <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+    <t>予防接種の発生の日付は、最初に記録に記録されました - イベントの発生後には潜在的に大幅に。 / The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].time</t>
@@ -737,13 +738,13 @@
 </t>
   </si>
   <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
+    <t>データが記録されたコンテキストを示します / Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>記録の内容は、ワクチンを投与した人からの情報に基づいていることを示しています。これは、データが最初に記録されたコンテキストを反映しています。 / An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>コンテンツの「信頼性」を反映しています。 / Reflects the “reliability” of the content.</t>
   </si>
   <si>
     <t>RXA-9</t>
@@ -764,10 +765,10 @@
     <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
   </si>
   <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
+    <t>PrimarySource = trueの場合、PrimarySource = falseであっても必須ではありません。 / Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>主要なソースからのものではないレコードのデータのソース。 / The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
@@ -866,7 +867,7 @@
     <t>ワクチンが接種された身体部位</t>
   </si>
   <si>
-    <t>The site at which the vaccine was administered.</t>
+    <t>ワクチンが投与されたサイト。 / The site at which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
@@ -890,7 +891,7 @@
     <t>ワクチンが体内へと接種された経路。</t>
   </si>
   <si>
-    <t>The route by which the vaccine was administered.</t>
+    <t>ワクチンが投与されたルート。 / The route by which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
@@ -949,10 +950,10 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -964,10 +965,10 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -980,10 +981,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -993,16 +995,16 @@
     <t>Immunization.performer.function</t>
   </si>
   <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+    <t>どのような種類のパフォーマンスが行われました / What type of performance was done</t>
+  </si>
+  <si>
+    <t>パフォーマンスの種類（例：プロバイダーの注文、プロバイダーの管理など）について説明します。 / Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
+    <t>予防接種イベントで開業医または組織が果たす役割。 / The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
@@ -1021,13 +1023,13 @@
 </t>
   </si>
   <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+    <t>演奏していた個人または組織 / Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>アクションを実行した開業医または組織。 / The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>アクションを実行した個々の開業医が知られている場合、送信するのが最善です。 / When the individual practitioner who performed the action is known, it is best to send.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1070,7 +1072,7 @@
     <t>予防接種が行われた理由</t>
   </si>
   <si>
-    <t>The reason why a vaccine was administered.</t>
+    <t>ワクチンが投与された理由。 / The reason why a vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
@@ -1107,10 +1109,10 @@
     <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
   </si>
   <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
+    <t>通常、投与後の線量であるための用量の認識は遡及的です（管理後の製造業者のリコールの通知）。ただし、部分的な投与の場合（患者は予期せず動き、いくつかの投与量のみが実際に投与されます）、サブポテンシーはすぐに認識される場合がありますが、イベントを記録することは依然として重要です。 / Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>デフォルトでは、用量は強力であると見なされる必要があります。 / By default, a dose should be considered to be potent.</t>
   </si>
   <si>
     <t>RXA-20 = PA (partial administration)</t>
@@ -1125,7 +1127,7 @@
     <t>効力が減弱すると考えられている理由。</t>
   </si>
   <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
+    <t>用量がサブポテントと見なされる理由。 / The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
@@ -1140,8 +1142,8 @@
     <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:DocumentTypeまたは参照の1つが存在するものとします / One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>Immunization.education.id</t>
@@ -1156,10 +1158,10 @@
     <t>Immunization.education.documentType</t>
   </si>
   <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
+    <t>教育資料文書識別子 / Educational material document identifier</t>
+  </si>
+  <si>
+    <t>患者に提示された材料の識別子。 / Identifier of the material presented to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 69764-9</t>
@@ -1168,19 +1170,19 @@
     <t>Immunization.education.reference</t>
   </si>
   <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+    <t>教育資料の参照ポインター / Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>情報がオンラインであった場合、患者に与えられた教育資料を参照してください。 / Reference pointer to the educational material given to the patient if the information was on line.</t>
   </si>
   <si>
     <t>Immunization.education.publicationDate</t>
   </si>
   <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
+    <t>教育資料の出版日 / Educational material publication date</t>
+  </si>
+  <si>
+    <t>日付教育資料が公開されました。 / Date the educational material was published.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29768-9</t>
@@ -1189,10 +1191,10 @@
     <t>Immunization.education.presentationDate</t>
   </si>
   <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
+    <t>教育資料の提示日 / Educational material presentation date</t>
+  </si>
+  <si>
+    <t>日付患者に教育資料が与えられました。 / Date the educational material was given to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29769-7</t>
@@ -1207,7 +1209,7 @@
     <t>ワクチン接種計画での患者適格性を示す</t>
   </si>
   <si>
-    <t>The patient's eligibility for a vaccation program.</t>
+    <t>患者の予防接種プログラムの適格性。 / The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
@@ -1225,7 +1227,7 @@
     <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
   </si>
   <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
+    <t>投与されたワクチンの購入に使用される資金源。 / The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
@@ -1240,7 +1242,7 @@
     <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+    <t>反応はアレルギーまたは不耐性の兆候である可能性があり、これが事実であると判断された場合、ほとんどのシステムは過去の免疫要素に対して照会しないため、新しいアレルギー耐性リソースインスタンスとして記録する必要があります。 / A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>
@@ -1261,10 +1263,10 @@
     <t>Immunization.reaction.date</t>
   </si>
   <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
+    <t>反応が始まったとき / When reaction started</t>
+  </si>
+  <si>
+    <t>予防接種に対する反応日。 / Date of reaction to the immunization.</t>
   </si>
   <si>
     <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
@@ -1277,10 +1279,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
+    <t>反応に関する追加情報 / Additional information on reaction</t>
+  </si>
+  <si>
+    <t>反応の詳細。 / Details of the reaction.</t>
   </si>
   <si>
     <t>OBX-5</t>
@@ -1292,10 +1294,10 @@
     <t>Immunization.reaction.reported</t>
   </si>
   <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
+    <t>自己申告による反応を示します / Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>自己報告インジケーター。 / Self-reported indicator.</t>
   </si>
   <si>
     <t>(HL7 v2 doesn't seem to provide for this)</t>
@@ -1325,31 +1327,31 @@
     <t>Immunization.protocolApplied.series</t>
   </si>
   <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+    <t>ワクチンシリーズの名前 / Name of vaccine series</t>
+  </si>
+  <si>
+    <t>権威の文脈の中で、病気に対する免疫が推定される免疫を達成するための1つの可能な道。 / One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
-    <t>Who is responsible for publishing the recommendations</t>
-  </si>
-  <si>
-    <t>Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
+    <t>推奨事項を公開する責任者は誰ですか / Who is responsible for publishing the recommendations</t>
+  </si>
+  <si>
+    <t>追跡されているプロトコル（ACIPなど）を公開した当局を示します。 / Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.targetDisease</t>
   </si>
   <si>
-    <t>Vaccine preventatable disease being targetted</t>
-  </si>
-  <si>
-    <t>The vaccine preventable disease the dose is being administered against.</t>
-  </si>
-  <si>
-    <t>The vaccine preventable disease the dose is being administered for.</t>
+    <t>ワクチン予防可能な病気が標的にされています / Vaccine preventatable disease being targetted</t>
+  </si>
+  <si>
+    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered against.</t>
+  </si>
+  <si>
+    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered for.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
@@ -1362,22 +1364,22 @@
 string</t>
   </si>
   <si>
-    <t>Dose number within series</t>
-  </si>
-  <si>
-    <t>Nominal position in a series.</t>
-  </si>
-  <si>
-    <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
+    <t>シリーズ内の用量数 / Dose number within series</t>
+  </si>
+  <si>
+    <t>シリーズの名目上の位置。 / Nominal position in a series.</t>
+  </si>
+  <si>
+    <t>わかっている場合、整数の使用が好ましい。文字列は、整数が利用できない場合にのみ使用する必要があります（繰り返しブースター用量を文書化する場合など）。 / The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
   </si>
   <si>
-    <t>Recommended number of doses for immunity</t>
-  </si>
-  <si>
-    <t>The recommended number of doses to achieve immunity.</t>
+    <t>免疫のために推奨される用量数 / Recommended number of doses for immunity</t>
+  </si>
+  <si>
+    <t>免疫を達成するために推奨される用量の数。 / The recommended number of doses to achieve immunity.</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1705,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1716,7 +1718,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.9296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -261,8 +261,8 @@
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,10 +290,10 @@
     <t>このResourceに対する論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -306,16 +306,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -326,13 +326,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,19 +345,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -377,13 +377,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -403,13 +403,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -441,8 +441,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>dueDateOfNextDose</t>
@@ -495,18 +495,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -519,10 +518,10 @@
 </t>
   </si>
   <si>
-    <t>ビジネス識別子 / Business identifier</t>
-  </si>
-  <si>
-    <t>この予防接種記録に割り当てられた一意の識別子。 / A unique identifier assigned to this immunization record.</t>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this immunization record.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -540,13 +539,13 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t>完了|エラーに入った|まだ完成してない / completed | entered-in-error | not-done</t>
+    <t>completed | entered-in-error | not-done</t>
   </si>
   <si>
     <t>予防接種記録の現在の状態を示すコード</t>
   </si>
   <si>
-    <t>通常、予防接種が完了したか、行われていないことを示すように設定されます。この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -577,16 +576,16 @@
     <t>実施しなかった理由</t>
   </si>
   <si>
-    <t>予防接種イベントが実行されなかった理由を示します。 / Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>これは通常、「Not-Done」のステータスにのみ使用されます。予防接種イベントを実行する理由は、ここではなくReasonCodeでキャプチャされます。 / This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+    <t>Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>ワクチンが投与されなかった理由。 / The reason why a vaccine was not administered.</t>
+    <t>The reason why a vaccine was not administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
@@ -610,7 +609,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCoceableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>投与されたワクチン製品のコード。 / The code for vaccine product administered.</t>
+    <t>The code for vaccine product administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
@@ -694,7 +693,7 @@
     <t>ワクチンを接種した日あるいは接種予定だった日。</t>
   </si>
   <si>
-    <t>予防接種が与えられた場合、特定の日付と時間を常に把握する必要があります。予防接種が患者を報告する場合、特定の日付はわからないかもしれません。部分的な日付は許可されていますが、成人患者は小児期の予防接種が与えられた年を思い出すことができないかもしれません。正確な日付は常に望ましいですが、正確な日付が不明な場合、文字列データ型の使用は許容されます。少数のワクチン（たとえば、生きた経口腸チフスワクチンなど）は、一連の患者の自己投与量として、期間にわたって投与されます。このような場合、多くの場合、最初の用量（通常はプロバイダーの監督付き用量）のみが、最初の用量の日付/時刻を示す発生で記録されます。 / When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -722,7 +721,7 @@
     <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
   </si>
   <si>
-    <t>予防接種の発生の日付は、最初に記録に記録されました - イベントの発生後には潜在的に大幅に。 / The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].time</t>
@@ -738,13 +737,13 @@
 </t>
   </si>
   <si>
-    <t>データが記録されたコンテキストを示します / Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>記録の内容は、ワクチンを投与した人からの情報に基づいていることを示しています。これは、データが最初に記録されたコンテキストを反映しています。 / An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>コンテンツの「信頼性」を反映しています。 / Reflects the “reliability” of the content.</t>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
   </si>
   <si>
     <t>RXA-9</t>
@@ -765,10 +764,10 @@
     <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
   </si>
   <si>
-    <t>PrimarySource = trueの場合、PrimarySource = falseであっても必須ではありません。 / Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>主要なソースからのものではないレコードのデータのソース。 / The source of the data for a record which is not from a primary source.</t>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
@@ -867,7 +866,7 @@
     <t>ワクチンが接種された身体部位</t>
   </si>
   <si>
-    <t>ワクチンが投与されたサイト。 / The site at which the vaccine was administered.</t>
+    <t>The site at which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
@@ -891,7 +890,7 @@
     <t>ワクチンが体内へと接種された経路。</t>
   </si>
   <si>
-    <t>ワクチンが投与されたルート。 / The route by which the vaccine was administered.</t>
+    <t>The route by which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
@@ -950,10 +949,10 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -965,10 +964,10 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -981,11 +980,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -995,16 +993,16 @@
     <t>Immunization.performer.function</t>
   </si>
   <si>
-    <t>どのような種類のパフォーマンスが行われました / What type of performance was done</t>
-  </si>
-  <si>
-    <t>パフォーマンスの種類（例：プロバイダーの注文、プロバイダーの管理など）について説明します。 / Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>予防接種イベントで開業医または組織が果たす役割。 / The role a practitioner or organization plays in the immunization event.</t>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
@@ -1023,13 +1021,13 @@
 </t>
   </si>
   <si>
-    <t>演奏していた個人または組織 / Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>アクションを実行した開業医または組織。 / The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>アクションを実行した個々の開業医が知られている場合、送信するのが最善です。 / When the individual practitioner who performed the action is known, it is best to send.</t>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1072,7 +1070,7 @@
     <t>予防接種が行われた理由</t>
   </si>
   <si>
-    <t>ワクチンが投与された理由。 / The reason why a vaccine was administered.</t>
+    <t>The reason why a vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
@@ -1109,10 +1107,10 @@
     <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
   </si>
   <si>
-    <t>通常、投与後の線量であるための用量の認識は遡及的です（管理後の製造業者のリコールの通知）。ただし、部分的な投与の場合（患者は予期せず動き、いくつかの投与量のみが実際に投与されます）、サブポテンシーはすぐに認識される場合がありますが、イベントを記録することは依然として重要です。 / Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>デフォルトでは、用量は強力であると見なされる必要があります。 / By default, a dose should be considered to be potent.</t>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
   </si>
   <si>
     <t>RXA-20 = PA (partial administration)</t>
@@ -1127,7 +1125,7 @@
     <t>効力が減弱すると考えられている理由。</t>
   </si>
   <si>
-    <t>用量がサブポテントと見なされる理由。 / The reason why a dose is considered to be subpotent.</t>
+    <t>The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
@@ -1142,8 +1140,8 @@
     <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:DocumentTypeまたは参照の1つが存在するものとします / One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>Immunization.education.id</t>
@@ -1158,10 +1156,10 @@
     <t>Immunization.education.documentType</t>
   </si>
   <si>
-    <t>教育資料文書識別子 / Educational material document identifier</t>
-  </si>
-  <si>
-    <t>患者に提示された材料の識別子。 / Identifier of the material presented to the patient.</t>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 69764-9</t>
@@ -1170,19 +1168,19 @@
     <t>Immunization.education.reference</t>
   </si>
   <si>
-    <t>教育資料の参照ポインター / Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>情報がオンラインであった場合、患者に与えられた教育資料を参照してください。 / Reference pointer to the educational material given to the patient if the information was on line.</t>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
   </si>
   <si>
     <t>Immunization.education.publicationDate</t>
   </si>
   <si>
-    <t>教育資料の出版日 / Educational material publication date</t>
-  </si>
-  <si>
-    <t>日付教育資料が公開されました。 / Date the educational material was published.</t>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29768-9</t>
@@ -1191,10 +1189,10 @@
     <t>Immunization.education.presentationDate</t>
   </si>
   <si>
-    <t>教育資料の提示日 / Educational material presentation date</t>
-  </si>
-  <si>
-    <t>日付患者に教育資料が与えられました。 / Date the educational material was given to the patient.</t>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29769-7</t>
@@ -1209,7 +1207,7 @@
     <t>ワクチン接種計画での患者適格性を示す</t>
   </si>
   <si>
-    <t>患者の予防接種プログラムの適格性。 / The patient's eligibility for a vaccation program.</t>
+    <t>The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
@@ -1227,7 +1225,7 @@
     <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
   </si>
   <si>
-    <t>投与されたワクチンの購入に使用される資金源。 / The source of funding used to purchase the vaccine administered.</t>
+    <t>The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
@@ -1242,7 +1240,7 @@
     <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
   </si>
   <si>
-    <t>反応はアレルギーまたは不耐性の兆候である可能性があり、これが事実であると判断された場合、ほとんどのシステムは過去の免疫要素に対して照会しないため、新しいアレルギー耐性リソースインスタンスとして記録する必要があります。 / A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>
@@ -1263,10 +1261,10 @@
     <t>Immunization.reaction.date</t>
   </si>
   <si>
-    <t>反応が始まったとき / When reaction started</t>
-  </si>
-  <si>
-    <t>予防接種に対する反応日。 / Date of reaction to the immunization.</t>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
   </si>
   <si>
     <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
@@ -1279,10 +1277,10 @@
 </t>
   </si>
   <si>
-    <t>反応に関する追加情報 / Additional information on reaction</t>
-  </si>
-  <si>
-    <t>反応の詳細。 / Details of the reaction.</t>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
   </si>
   <si>
     <t>OBX-5</t>
@@ -1294,10 +1292,10 @@
     <t>Immunization.reaction.reported</t>
   </si>
   <si>
-    <t>自己申告による反応を示します / Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>自己報告インジケーター。 / Self-reported indicator.</t>
+    <t>Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>Self-reported indicator.</t>
   </si>
   <si>
     <t>(HL7 v2 doesn't seem to provide for this)</t>
@@ -1327,31 +1325,31 @@
     <t>Immunization.protocolApplied.series</t>
   </si>
   <si>
-    <t>ワクチンシリーズの名前 / Name of vaccine series</t>
-  </si>
-  <si>
-    <t>権威の文脈の中で、病気に対する免疫が推定される免疫を達成するための1つの可能な道。 / One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+    <t>Name of vaccine series</t>
+  </si>
+  <si>
+    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
-    <t>推奨事項を公開する責任者は誰ですか / Who is responsible for publishing the recommendations</t>
-  </si>
-  <si>
-    <t>追跡されているプロトコル（ACIPなど）を公開した当局を示します。 / Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
+    <t>Who is responsible for publishing the recommendations</t>
+  </si>
+  <si>
+    <t>Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.targetDisease</t>
   </si>
   <si>
-    <t>ワクチン予防可能な病気が標的にされています / Vaccine preventatable disease being targetted</t>
-  </si>
-  <si>
-    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered against.</t>
-  </si>
-  <si>
-    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered for.</t>
+    <t>Vaccine preventatable disease being targetted</t>
+  </si>
+  <si>
+    <t>The vaccine preventable disease the dose is being administered against.</t>
+  </si>
+  <si>
+    <t>The vaccine preventable disease the dose is being administered for.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
@@ -1364,22 +1362,22 @@
 string</t>
   </si>
   <si>
-    <t>シリーズ内の用量数 / Dose number within series</t>
-  </si>
-  <si>
-    <t>シリーズの名目上の位置。 / Nominal position in a series.</t>
-  </si>
-  <si>
-    <t>わかっている場合、整数の使用が好ましい。文字列は、整数が利用できない場合にのみ使用する必要があります（繰り返しブースター用量を文書化する場合など）。 / The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
+    <t>Dose number within series</t>
+  </si>
+  <si>
+    <t>Nominal position in a series.</t>
+  </si>
+  <si>
+    <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
   </si>
   <si>
-    <t>免疫のために推奨される用量数 / Recommended number of doses for immunity</t>
-  </si>
-  <si>
-    <t>免疫を達成するために推奨される用量の数。 / The recommended number of doses to achieve immunity.</t>
+    <t>Recommended number of doses for immunity</t>
+  </si>
+  <si>
+    <t>The recommended number of doses to achieve immunity.</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1703,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1718,7 +1716,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.9296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -448,7 +448,7 @@
     <t>dueDateOfNextDose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>certificatedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_CertificatedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -606,7 +606,7 @@
     <t>接種されたあるいは接種予定のワクチン。</t>
   </si>
   <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCoceableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
     <t>The code for vaccine product administered.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -609,10 +609,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1717,7 +1714,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3619,13 +3616,11 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3658,24 +3653,24 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3698,13 +3693,13 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3755,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3770,16 +3765,16 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3782,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3810,13 +3805,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3867,7 +3862,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3882,16 +3877,16 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3899,7 +3894,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3922,16 +3917,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3981,7 +3976,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>87</v>
@@ -3996,24 +3991,24 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4036,13 +4031,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4093,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4114,10 +4109,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4125,7 +4120,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4148,16 +4143,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4207,7 +4202,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4225,13 +4220,13 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4239,7 +4234,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4265,13 +4260,13 @@
         <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4300,11 +4295,11 @@
         <v>182</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4321,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4339,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4353,7 +4348,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4376,13 +4371,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4433,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4448,16 +4443,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4465,7 +4460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4488,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4545,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4563,21 +4558,21 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4603,10 +4598,10 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4657,7 +4652,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4675,21 +4670,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4712,13 +4707,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4769,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4787,10 +4782,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4801,7 +4796,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4827,10 +4822,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4860,11 +4855,11 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4899,21 +4894,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4939,10 +4934,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4972,11 +4967,11 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5011,21 +5006,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5048,13 +5043,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5105,7 +5100,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5123,10 +5118,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5137,7 +5132,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5160,13 +5155,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5217,7 +5212,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5232,13 +5227,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5249,7 +5244,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5275,10 +5270,10 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5329,28 +5324,28 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5356,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5387,10 +5382,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5443,7 +5438,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5464,7 +5459,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5475,11 +5470,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5501,10 +5496,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5559,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5586,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5617,10 +5612,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5647,14 +5642,14 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5686,13 +5681,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5703,7 +5698,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5726,16 +5721,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5785,7 +5780,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5800,16 +5795,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5840,13 +5835,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5897,7 +5892,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5912,13 +5907,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5929,7 +5924,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5955,10 +5950,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5988,11 +5983,11 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6024,13 +6019,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6036,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6064,13 +6059,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6121,7 +6116,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6131,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6153,7 +6148,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6176,23 +6171,23 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6232,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6269,7 +6264,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6295,10 +6290,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6328,11 +6323,11 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6381,7 +6376,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6404,13 +6399,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6461,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6488,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6519,10 +6514,10 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6573,28 +6568,28 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6605,7 +6600,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6631,10 +6626,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6687,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6708,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6719,11 +6714,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6745,10 +6740,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6803,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6835,7 +6830,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6861,10 +6856,10 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6915,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6933,7 +6928,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6947,7 +6942,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6973,10 +6968,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7027,7 +7022,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7059,7 +7054,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7082,13 +7077,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7139,7 +7134,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7171,7 +7166,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7194,13 +7189,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7251,7 +7246,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7269,7 +7264,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7283,7 +7278,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7309,10 +7304,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7342,11 +7337,11 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7363,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7381,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7395,7 +7390,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,10 +7416,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7454,11 +7449,11 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7507,7 +7502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,16 +7525,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7589,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7607,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7616,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7647,10 +7642,10 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7701,28 +7696,28 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7728,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7759,10 +7754,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7815,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7836,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7847,11 +7842,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7873,10 +7868,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7931,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7963,7 +7958,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7986,13 +7981,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8043,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8061,10 +8056,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8070,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8098,13 +8093,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8155,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8173,10 +8168,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8187,7 +8182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8210,13 +8205,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8267,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8285,10 +8280,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8299,7 +8294,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8322,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8379,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8406,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8437,10 +8432,10 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8491,28 +8486,28 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8518,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8549,10 +8544,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8605,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8626,7 +8621,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8637,11 +8632,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8663,10 +8658,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8721,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8748,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8779,10 +8774,10 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8833,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8865,7 +8860,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8888,13 +8883,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8945,7 +8940,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8972,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9003,10 +8998,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9036,11 +9031,11 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9057,7 +9052,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9089,7 +9084,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9112,16 +9107,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9171,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9203,7 +9198,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9226,16 +9221,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9285,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための成約を加えてものである。</t>
+    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -609,7 +609,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1714,7 +1714,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -283,544 +283,548 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>このResourceに対する論理ID</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Immunization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Immunization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Immunization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Immunization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dueDateOfNextDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+</t>
+  </si>
+  <si>
+    <t>次回接種予定日</t>
+  </si>
+  <si>
+    <t>次回接種を予定している日、期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>manufacturedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
+</t>
+  </si>
+  <si>
+    <t>製造年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが製造された年月日</t>
+  </si>
+  <si>
+    <t>certificatedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
+</t>
+  </si>
+  <si>
+    <t>検定年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが検定された年月日</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this immunization record.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>completed | entered-in-error | not-done</t>
+  </si>
+  <si>
+    <t>予防接種記録の現在の状態を示すコード</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>予防接種の現在の状態を表すコード</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>実施しなかった理由</t>
+  </si>
+  <si>
+    <t>Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
+    <t>接種されたワクチン製剤</t>
+  </si>
+  <si>
+    <t>接種されたあるいは接種予定のワクチン。</t>
+  </si>
+  <si>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた人</t>
+  </si>
+  <si>
+    <t>予防接種を受けた，あるいは受けなかった患者。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた診察</t>
+  </si>
+  <si>
+    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日時</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>二次的に報告された記録の発生源を示す</t>
+  </si>
+  <si>
+    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した場所</t>
+  </si>
+  <si>
+    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>このResourceに対する論理ID</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Immunization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Immunization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Immunization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Immunization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Immunization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dueDateOfNextDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
-</t>
-  </si>
-  <si>
-    <t>次回接種予定日</t>
-  </si>
-  <si>
-    <t>次回接種を予定している日、期限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>manufacturedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
-</t>
-  </si>
-  <si>
-    <t>製造年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが製造された年月日</t>
-  </si>
-  <si>
-    <t>certificatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
-</t>
-  </si>
-  <si>
-    <t>検定年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが検定された年月日</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
-  </si>
-  <si>
-    <t>Immunization.status</t>
-  </si>
-  <si>
-    <t>completed | entered-in-error | not-done</t>
-  </si>
-  <si>
-    <t>予防接種記録の現在の状態を示すコード</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>予防接種の現在の状態を表すコード</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>実施しなかった理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
-    <t>接種されたワクチン製剤</t>
-  </si>
-  <si>
-    <t>接種されたあるいは接種予定のワクチン。</t>
-  </si>
-  <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた人</t>
-  </si>
-  <si>
-    <t>予防接種を受けた，あるいは受けなかった患者。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた診察</t>
-  </si>
-  <si>
-    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日時</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>二次的に報告された記録の発生源を示す</t>
-  </si>
-  <si>
-    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した場所</t>
-  </si>
-  <si>
-    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t>ワクチンのロット番号</t>
@@ -4595,13 +4599,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4670,21 +4674,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4707,13 +4711,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4764,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4782,10 +4786,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4822,10 +4826,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4855,10 +4859,10 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4894,21 +4898,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,10 +4938,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4967,10 +4971,10 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5006,21 +5010,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5043,13 +5047,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5100,7 +5104,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5118,10 +5122,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5227,13 +5231,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5267,13 +5271,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5324,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5382,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5438,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5470,11 +5474,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5496,10 +5500,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5586,7 +5590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5612,10 +5616,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5642,13 +5646,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5681,13 +5685,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5795,16 +5799,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5812,7 +5816,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5835,13 +5839,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5907,13 +5911,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5950,10 +5954,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5983,10 +5987,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6004,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6019,13 +6023,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6059,13 +6063,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6116,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6174,20 +6178,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6232,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6250,7 +6254,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,10 +6294,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6323,10 +6327,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6348,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6399,13 +6403,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6456,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6511,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6568,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6604,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6626,10 +6630,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6682,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6703,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6714,11 +6718,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6740,10 +6744,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6798,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6834,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,13 +6857,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6910,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6928,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6968,10 +6972,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7054,7 +7058,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7080,10 +7084,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7134,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7152,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7192,10 +7196,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7246,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7264,7 +7268,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7304,10 +7308,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7337,10 +7341,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7376,7 +7380,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7390,7 +7394,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7420,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7449,10 +7453,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,16 +7529,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7602,10 +7606,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7639,13 +7643,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7696,7 +7700,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7728,7 +7732,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7754,10 +7758,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7810,7 +7814,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7842,11 +7846,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7868,10 +7872,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7926,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7958,7 +7962,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7984,10 +7988,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8060,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8093,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8150,7 +8154,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8168,10 +8172,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8208,10 +8212,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8280,10 +8284,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8625,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8886,10 +8890,10 @@
         <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8940,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8998,10 +9002,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9031,10 +9035,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9052,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9084,7 +9088,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9107,16 +9111,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9166,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9221,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9280,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -630,7 +630,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -655,7 +655,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -799,540 +799,544 @@
   </si>
   <si>
     <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>ワクチンのロット番号</t>
+  </si>
+  <si>
+    <t>ワクチン製剤のロット番号。</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>ワクチンの使用期限</t>
+  </si>
+  <si>
+    <t>ワクチンの消費期限を表す日。</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>ワクチンが接種された身体部位</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した経路</t>
+  </si>
+  <si>
+    <t>ワクチンが体内へと接種された経路。</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>ワクチンの投与量</t>
+  </si>
+  <si>
+    <t>ワクチン製剤が接種された量</t>
+  </si>
+  <si>
+    <t>RXA-6 / RXA-7</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>ワクチン接種を実施した人</t>
+  </si>
+  <si>
+    <t>誰が予防接種を実施したかを表す。</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>予防接種についての補足的記録</t>
+  </si>
+  <si>
+    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>予防接種を接種した理由</t>
+  </si>
+  <si>
+    <t>予防接種が行われた理由</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>予防接種を実施した理由</t>
+  </si>
+  <si>
+    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>効力量</t>
+  </si>
+  <si>
+    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>効力が減弱する理由</t>
+  </si>
+  <si>
+    <t>効力が減弱すると考えられている理由。</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>患者に提示された教材</t>
+  </si>
+  <si>
+    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性を示す</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画のの資金源</t>
+  </si>
+  <si>
+    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>予防接種後に起こった反応についての詳細な記録</t>
+  </si>
+  <si>
+    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t>Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>Self-reported indicator.</t>
+  </si>
+  <si>
+    <t>(HL7 v2 doesn't seem to provide for this)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
+    <t>提供者が実施したプロトコール</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.id</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.series</t>
+  </si>
+  <si>
+    <t>Name of vaccine series</t>
+  </si>
+  <si>
+    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>ワクチンのロット番号</t>
-  </si>
-  <si>
-    <t>ワクチン製剤のロット番号。</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>ワクチンの使用期限</t>
-  </si>
-  <si>
-    <t>ワクチンの消費期限を表す日。</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>ワクチンが接種された身体部位</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した経路</t>
-  </si>
-  <si>
-    <t>ワクチンが体内へと接種された経路。</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>ワクチンの投与量</t>
-  </si>
-  <si>
-    <t>ワクチン製剤が接種された量</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>ワクチン接種を実施した人</t>
-  </si>
-  <si>
-    <t>誰が予防接種を実施したかを表す。</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>予防接種についての補足的記録</t>
-  </si>
-  <si>
-    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>予防接種を接種した理由</t>
-  </si>
-  <si>
-    <t>予防接種が行われた理由</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>予防接種を実施した理由</t>
-  </si>
-  <si>
-    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>効力量</t>
-  </si>
-  <si>
-    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>効力が減弱する理由</t>
-  </si>
-  <si>
-    <t>効力が減弱すると考えられている理由。</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>患者に提示された教材</t>
-  </si>
-  <si>
-    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性を示す</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画のの資金源</t>
-  </si>
-  <si>
-    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>予防接種後に起こった反応についての詳細な記録</t>
-  </si>
-  <si>
-    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.reported</t>
-  </si>
-  <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
-  </si>
-  <si>
-    <t>(HL7 v2 doesn't seem to provide for this)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied</t>
-  </si>
-  <si>
-    <t>提供者が実施したプロトコール</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.id</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.series</t>
-  </si>
-  <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t>Who is responsible for publishing the recommendations</t>
@@ -8887,13 +8891,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8976,7 +8980,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9002,10 +9006,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9035,10 +9039,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9111,16 +9115,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9170,7 +9174,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9202,7 +9206,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9225,16 +9229,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9284,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -909,7 +909,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -919,10 +919,17 @@
     <t>ワクチン製剤が接種された量</t>
   </si>
   <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
     <t>Immunization.performer</t>
@@ -5059,7 +5066,9 @@
       <c r="L30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5117,19 +5126,19 @@
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5140,7 +5149,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5163,13 +5172,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5220,7 +5229,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5235,13 +5244,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5252,7 +5261,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5278,10 +5287,10 @@
         <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5332,7 +5341,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5353,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5364,7 +5373,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5390,10 +5399,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5446,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5467,7 +5476,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5478,11 +5487,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5504,10 +5513,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5562,7 +5571,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5594,7 +5603,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5620,10 +5629,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5650,13 +5659,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5689,13 +5698,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5706,7 +5715,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5729,16 +5738,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5788,7 +5797,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5803,16 +5812,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5820,7 +5829,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5843,13 +5852,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5900,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5915,13 +5924,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5932,7 +5941,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5958,10 +5967,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5991,10 +6000,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6012,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6027,13 +6036,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6044,7 +6053,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6067,13 +6076,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6124,7 +6133,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6139,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6156,7 +6165,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6182,20 +6191,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6240,7 +6249,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6258,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6272,7 +6281,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6298,10 +6307,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6331,10 +6340,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6352,7 +6361,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6384,7 +6393,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6407,13 +6416,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6464,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6485,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6496,7 +6505,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6522,10 +6531,10 @@
         <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6576,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6597,7 +6606,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6608,7 +6617,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6634,10 +6643,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6690,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6711,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6722,11 +6731,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6748,10 +6757,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6806,7 +6815,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6838,7 +6847,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6864,10 +6873,10 @@
         <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6918,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6936,7 +6945,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6950,7 +6959,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6976,10 +6985,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7030,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7062,7 +7071,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7088,10 +7097,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7142,7 +7151,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7160,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7174,7 +7183,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7200,10 +7209,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7254,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7272,7 +7281,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7286,7 +7295,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7312,10 +7321,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7345,10 +7354,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7366,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7384,7 +7393,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7398,7 +7407,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7424,10 +7433,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7457,10 +7466,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7478,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7510,7 +7519,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7533,16 +7542,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7592,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7610,10 +7619,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7624,7 +7633,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7650,10 +7659,10 @@
         <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7704,7 +7713,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7725,7 +7734,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7736,7 +7745,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7762,10 +7771,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7818,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7839,7 +7848,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7850,11 +7859,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7876,10 +7885,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7934,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7966,7 +7975,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7992,10 +8001,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8046,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8064,7 +8073,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8078,7 +8087,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8101,13 +8110,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8158,7 +8167,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8176,10 +8185,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8190,7 +8199,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8216,10 +8225,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8270,7 +8279,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8288,10 +8297,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8302,7 +8311,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8325,13 +8334,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8382,7 +8391,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8414,7 +8423,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8440,10 +8449,10 @@
         <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8494,7 +8503,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8515,7 +8524,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8526,7 +8535,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,10 +8561,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8608,7 +8617,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8629,7 +8638,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8640,11 +8649,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8666,10 +8675,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8724,7 +8733,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8756,7 +8765,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8782,10 +8791,10 @@
         <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8836,7 +8845,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8868,7 +8877,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8891,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8948,7 +8957,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8980,7 +8989,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9006,10 +9015,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9039,10 +9048,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9060,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9101,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9115,16 +9124,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9174,7 +9183,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9206,7 +9215,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9229,16 +9238,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9288,7 +9297,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-18</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -606,7 +606,7 @@
     <t>接種されたあるいは接種予定のワクチン。</t>
   </si>
   <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+    <t>全てのターミノロジがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このProfileはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
+    <t>このプロファイルはImmunizationリソースに対して日本での予防接種データを送受信するための制約を加えたものである。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -715,7 +715,7 @@
 </t>
   </si>
   <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+    <t>予防接種を受けた対象者の記録として最初に記載された日</t>
   </si>
   <si>
     <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -609,7 +609,7 @@
     <t>全てのターミノロジがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_Immunization_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1729,7 +1729,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1638,55 +1637,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1749,221 +1748,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1975,10 +1974,10 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1987,20 +1986,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>88</v>
@@ -2019,80 +2018,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2101,20 +2100,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>88</v>
@@ -2131,80 +2130,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2213,17 +2212,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>88</v>
@@ -2245,80 +2244,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2327,23 +2326,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -2359,26 +2358,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>111</v>
@@ -2390,49 +2389,49 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2445,19 +2444,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>117</v>
@@ -2473,80 +2472,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2559,19 +2558,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>125</v>
@@ -2587,80 +2586,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2669,23 +2668,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2699,45 +2698,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>136</v>
@@ -2746,31 +2745,31 @@
         <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2781,23 +2780,23 @@
         <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>140</v>
@@ -2811,59 +2810,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>143</v>
@@ -2872,19 +2871,19 @@
         <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2895,23 +2894,23 @@
         <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>145</v>
@@ -2925,59 +2924,59 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>143</v>
@@ -2986,19 +2985,19 @@
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3009,23 +3008,23 @@
         <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>149</v>
@@ -3039,59 +3038,59 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>143</v>
@@ -3100,19 +3099,19 @@
         <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3125,19 +3124,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>132</v>
@@ -3155,80 +3154,80 @@
         <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3237,23 +3236,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>160</v>
@@ -3267,62 +3266,62 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -3331,7 +3330,7 @@
         <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>164</v>
@@ -3349,7 +3348,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3359,7 +3358,7 @@
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>88</v>
@@ -3381,26 +3380,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>171</v>
@@ -3412,19 +3411,19 @@
         <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>167</v>
@@ -3436,7 +3435,7 @@
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>99</v>
@@ -3445,7 +3444,7 @@
         <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>175</v>
@@ -3454,7 +3453,7 @@
         <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3463,23 +3462,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>178</v>
@@ -3495,26 +3494,26 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>182</v>
@@ -3526,31 +3525,31 @@
         <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>99</v>
@@ -3559,16 +3558,16 @@
         <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -3577,7 +3576,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3587,10 +3586,10 @@
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
@@ -3609,26 +3608,26 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>111</v>
@@ -3638,19 +3637,19 @@
         <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>187</v>
@@ -3662,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>99</v>
@@ -3689,7 +3688,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3699,10 +3698,10 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
@@ -3719,50 +3718,50 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
@@ -3774,7 +3773,7 @@
         <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>99</v>
@@ -3792,7 +3791,7 @@
         <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3801,23 +3800,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>206</v>
@@ -3831,62 +3830,62 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>99</v>
@@ -3904,7 +3903,7 @@
         <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -3913,7 +3912,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3923,10 +3922,10 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
@@ -3945,50 +3944,50 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>213</v>
@@ -4000,7 +3999,7 @@
         <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>99</v>
@@ -4027,23 +4026,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>224</v>
@@ -4057,71 +4056,71 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>227</v>
@@ -4130,7 +4129,7 @@
         <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -4139,20 +4138,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
@@ -4171,68 +4170,68 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>234</v>
@@ -4244,7 +4243,7 @@
         <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4253,23 +4252,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>178</v>
@@ -4285,26 +4284,26 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>182</v>
@@ -4316,37 +4315,37 @@
         <v>242</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>234</v>
@@ -4358,7 +4357,7 @@
         <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4367,23 +4366,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>245</v>
@@ -4397,62 +4396,62 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>99</v>
@@ -4470,7 +4469,7 @@
         <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4479,23 +4478,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>253</v>
@@ -4509,68 +4508,68 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>256</v>
@@ -4579,7 +4578,7 @@
         <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>258</v>
@@ -4591,23 +4590,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>260</v>
@@ -4621,68 +4620,68 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>263</v>
@@ -4691,7 +4690,7 @@
         <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>265</v>
@@ -4703,23 +4702,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>267</v>
@@ -4733,68 +4732,68 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>270</v>
@@ -4803,10 +4802,10 @@
         <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -4815,23 +4814,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>178</v>
@@ -4845,26 +4844,26 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>182</v>
@@ -4876,37 +4875,37 @@
         <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>276</v>
@@ -4915,7 +4914,7 @@
         <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>278</v>
@@ -4927,23 +4926,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>178</v>
@@ -4957,26 +4956,26 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>182</v>
@@ -4988,37 +4987,37 @@
         <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>284</v>
@@ -5027,7 +5026,7 @@
         <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>286</v>
@@ -5039,23 +5038,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>288</v>
@@ -5071,56 +5070,56 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5132,7 +5131,7 @@
         <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>293</v>
@@ -5141,10 +5140,10 @@
         <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -5153,20 +5152,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -5183,62 +5182,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5253,10 +5252,10 @@
         <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5265,23 +5264,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>260</v>
@@ -5295,80 +5294,80 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5381,19 +5380,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>132</v>
@@ -5409,80 +5408,80 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5495,13 +5494,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>88</v>
@@ -5525,80 +5524,80 @@
         <v>157</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5607,20 +5606,20 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
@@ -5637,26 +5636,26 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>319</v>
@@ -5668,31 +5667,31 @@
         <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -5701,16 +5700,16 @@
         <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -5719,7 +5718,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5729,10 +5728,10 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
@@ -5751,50 +5750,50 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>324</v>
@@ -5806,7 +5805,7 @@
         <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -5815,7 +5814,7 @@
         <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>330</v>
@@ -5824,7 +5823,7 @@
         <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -5833,20 +5832,20 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
@@ -5863,62 +5862,62 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>99</v>
@@ -5933,10 +5932,10 @@
         <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -5945,23 +5944,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>178</v>
@@ -5975,26 +5974,26 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>182</v>
@@ -6006,31 +6005,31 @@
         <v>343</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
@@ -6039,16 +6038,16 @@
         <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6057,23 +6056,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>347</v>
@@ -6087,62 +6086,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6151,16 +6150,16 @@
         <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6169,17 +6168,17 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>88</v>
@@ -6201,70 +6200,70 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>355</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>356</v>
@@ -6273,10 +6272,10 @@
         <v>130</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6285,23 +6284,23 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>178</v>
@@ -6315,26 +6314,26 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>182</v>
@@ -6346,49 +6345,49 @@
         <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6397,23 +6396,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>296</v>
@@ -6427,80 +6426,80 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6509,23 +6508,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>260</v>
@@ -6539,80 +6538,80 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6625,19 +6624,19 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>132</v>
@@ -6653,80 +6652,80 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6739,13 +6738,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>88</v>
@@ -6769,80 +6768,80 @@
         <v>157</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6851,23 +6850,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>260</v>
@@ -6881,68 +6880,68 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>372</v>
@@ -6951,10 +6950,10 @@
         <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -6963,23 +6962,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>101</v>
@@ -6993,80 +6992,80 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7075,23 +7074,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>224</v>
@@ -7105,68 +7104,68 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>379</v>
@@ -7175,10 +7174,10 @@
         <v>130</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7187,23 +7186,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>224</v>
@@ -7217,68 +7216,68 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>383</v>
@@ -7287,10 +7286,10 @@
         <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -7299,23 +7298,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>178</v>
@@ -7329,26 +7328,26 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>182</v>
@@ -7360,37 +7359,37 @@
         <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>389</v>
@@ -7399,10 +7398,10 @@
         <v>130</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -7411,23 +7410,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>178</v>
@@ -7441,26 +7440,26 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>182</v>
@@ -7472,49 +7471,49 @@
         <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -7523,23 +7522,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>296</v>
@@ -7555,68 +7554,68 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>399</v>
@@ -7625,10 +7624,10 @@
         <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -7637,23 +7636,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>260</v>
@@ -7667,80 +7666,80 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7753,19 +7752,19 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>132</v>
@@ -7781,80 +7780,80 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -7867,13 +7866,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>88</v>
@@ -7897,80 +7896,80 @@
         <v>157</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -7979,23 +7978,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>224</v>
@@ -8009,68 +8008,68 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>407</v>
@@ -8079,10 +8078,10 @@
         <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -8091,23 +8090,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>409</v>
@@ -8121,68 +8120,68 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>412</v>
@@ -8191,10 +8190,10 @@
         <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8203,23 +8202,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>230</v>
@@ -8233,68 +8232,68 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>417</v>
@@ -8303,10 +8302,10 @@
         <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8315,23 +8314,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>296</v>
@@ -8345,80 +8344,80 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -8427,23 +8426,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>260</v>
@@ -8457,80 +8456,80 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8543,19 +8542,19 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>132</v>
@@ -8571,80 +8570,80 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -8657,13 +8656,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>88</v>
@@ -8687,80 +8686,80 @@
         <v>157</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8769,23 +8768,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>260</v>
@@ -8799,80 +8798,80 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -8881,23 +8880,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>429</v>
@@ -8911,80 +8910,80 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -8993,23 +8992,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>178</v>
@@ -9023,26 +9022,26 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
         <v>182</v>
@@ -9054,49 +9053,49 @@
         <v>436</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -9105,7 +9104,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9115,13 +9114,13 @@
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>438</v>
@@ -9137,50 +9136,50 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>437</v>
@@ -9192,25 +9191,25 @@
         <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
@@ -9219,23 +9218,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>438</v>
@@ -9251,80 +9250,80 @@
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>予防接種</t>
@@ -1911,13 +1915,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1983,13 +1987,13 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2000,10 +2004,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2014,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2023,19 +2027,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2085,13 +2089,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2117,10 +2121,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2131,7 +2135,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2140,16 +2144,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2200,19 +2204,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2232,10 +2236,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2246,28 +2250,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2317,19 +2321,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2349,10 +2353,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2363,7 +2367,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2375,16 +2379,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2410,13 +2414,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2434,19 +2438,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2466,21 +2470,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2492,16 +2496,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2551,19 +2555,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2572,7 +2576,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2583,14 +2587,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2609,16 +2613,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2668,7 +2672,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2689,7 +2693,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2700,10 +2704,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2726,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2771,17 +2775,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2793,7 +2797,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2813,13 +2817,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -2829,7 +2833,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -2841,13 +2845,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2898,7 +2902,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2907,10 +2911,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -2930,13 +2934,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -2946,7 +2950,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -2958,13 +2962,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3015,7 +3019,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3024,10 +3028,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3047,13 +3051,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3063,7 +3067,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3075,13 +3079,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3132,7 +3136,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3141,10 +3145,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3164,14 +3168,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3184,25 +3188,25 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3251,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3263,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3272,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3283,10 +3287,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3309,13 +3313,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3366,7 +3370,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3378,30 +3382,30 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3409,31 +3413,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3459,13 +3463,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3483,31 +3487,31 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3515,10 +3519,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3529,7 +3533,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3541,16 +3545,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3576,13 +3580,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3600,28 +3604,28 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3632,10 +3636,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3643,10 +3647,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3655,19 +3659,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3693,11 +3697,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3715,42 +3719,42 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3758,10 +3762,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3770,16 +3774,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3830,31 +3834,31 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3862,10 +3866,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3876,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3888,13 +3892,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3945,31 +3949,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3988,10 +3992,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4000,19 +4004,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4062,42 +4066,42 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4108,7 +4112,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4120,13 +4124,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4177,19 +4181,19 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4198,10 +4202,10 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4209,10 +4213,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4223,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4232,19 +4236,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4294,31 +4298,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4326,10 +4330,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4340,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4352,16 +4356,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4387,13 +4391,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4411,31 +4415,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4443,10 +4447,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4457,7 +4461,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4469,13 +4473,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4526,31 +4530,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4572,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4584,13 +4588,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4641,42 +4645,42 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4687,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4699,13 +4703,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4756,42 +4760,42 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4802,7 +4806,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4814,13 +4818,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4871,28 +4875,28 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -4903,10 +4907,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4917,7 +4921,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4929,13 +4933,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4962,13 +4966,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4986,42 +4990,42 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5032,7 +5036,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5044,13 +5048,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5077,13 +5081,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5101,42 +5105,42 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5147,7 +5151,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5159,16 +5163,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5218,28 +5222,28 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5250,10 +5254,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5273,16 +5277,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5333,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5345,16 +5349,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5365,10 +5369,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5379,7 +5383,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5391,13 +5395,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5448,13 +5452,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5469,7 +5473,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5480,14 +5484,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5506,16 +5510,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5565,7 +5569,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5577,7 +5581,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5586,7 +5590,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5597,14 +5601,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5617,25 +5621,25 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5684,7 +5688,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5696,7 +5700,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5705,7 +5709,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5716,10 +5720,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5730,7 +5734,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5739,16 +5743,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5775,13 +5779,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5799,28 +5803,28 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5831,10 +5835,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5842,10 +5846,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5854,19 +5858,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5916,31 +5920,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5971,16 +5975,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6031,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6043,16 +6047,16 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6063,10 +6067,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6089,13 +6093,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6122,13 +6126,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6146,7 +6150,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6158,16 +6162,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6178,10 +6182,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6204,13 +6208,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6261,7 +6265,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6273,16 +6277,16 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6293,10 +6297,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6307,35 +6311,35 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
@@ -6380,28 +6384,28 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6412,10 +6416,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6438,13 +6442,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6471,13 +6475,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6495,7 +6499,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6507,7 +6511,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6520,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6527,10 +6531,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6553,13 +6557,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6610,7 +6614,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6622,7 +6626,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6631,7 +6635,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6642,10 +6646,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6656,7 +6660,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6668,13 +6672,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6725,13 +6729,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -6746,7 +6750,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6757,14 +6761,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6783,16 +6787,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6842,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6854,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6863,7 +6867,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6874,14 +6878,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6894,25 +6898,25 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6961,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6973,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6982,7 +6986,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -6993,10 +6997,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7007,7 +7011,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7019,13 +7023,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7076,28 +7080,28 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7108,10 +7112,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7122,7 +7126,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7134,13 +7138,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7191,19 +7195,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7212,7 +7216,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7223,10 +7227,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7237,7 +7241,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7249,13 +7253,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7306,28 +7310,28 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7338,10 +7342,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7352,7 +7356,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7364,13 +7368,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7421,28 +7425,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7453,10 +7457,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7479,13 +7483,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7512,13 +7516,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7536,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7548,16 +7552,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7568,10 +7572,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7582,7 +7586,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7594,13 +7598,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7627,13 +7631,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7651,19 +7655,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7672,7 +7676,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7683,10 +7687,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7709,16 +7713,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7768,7 +7772,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7780,16 +7784,16 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7800,10 +7804,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7814,7 +7818,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7826,13 +7830,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7883,13 +7887,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7904,7 +7908,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7915,14 +7919,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7941,16 +7945,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8000,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8012,7 +8016,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8021,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8032,14 +8036,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8052,25 +8056,25 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8119,7 +8123,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8131,7 +8135,7 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8140,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8151,10 +8155,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8165,7 +8169,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8177,13 +8181,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8234,28 +8238,28 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8266,10 +8270,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8280,7 +8284,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8292,13 +8296,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8349,28 +8353,28 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8381,10 +8385,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8395,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8407,13 +8411,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8464,28 +8468,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8496,10 +8500,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8522,13 +8526,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8579,7 +8583,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8591,7 +8595,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8600,7 +8604,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8611,10 +8615,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8625,7 +8629,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8637,13 +8641,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8694,13 +8698,13 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -8715,7 +8719,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8726,14 +8730,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8752,16 +8756,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8811,7 +8815,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8823,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -8832,7 +8836,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8843,14 +8847,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8863,25 +8867,25 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -8930,7 +8934,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8942,7 +8946,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -8951,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -8962,10 +8966,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8976,7 +8980,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -8988,13 +8992,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9045,19 +9049,19 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9066,7 +9070,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9077,10 +9081,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9091,7 +9095,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9103,13 +9107,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9160,19 +9164,19 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9181,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9192,10 +9196,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9218,13 +9222,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9251,13 +9255,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9275,7 +9279,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9287,7 +9291,7 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9296,7 +9300,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9307,10 +9311,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9318,10 +9322,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9333,16 +9337,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9392,19 +9396,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9413,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9424,10 +9428,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9438,7 +9442,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9450,16 +9454,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9509,19 +9513,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9530,7 +9534,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>予防接種</t>
@@ -1915,13 +1911,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1987,13 +1983,13 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2004,10 +2000,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2018,28 +2014,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2089,13 +2085,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2121,10 +2117,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2135,25 +2131,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2204,19 +2200,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2236,10 +2232,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2250,28 +2246,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2321,19 +2317,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2353,10 +2349,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2367,7 +2363,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2379,16 +2375,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2414,43 +2410,43 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2470,21 +2466,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2496,16 +2492,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2555,28 +2551,28 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2587,14 +2583,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2613,16 +2609,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2672,7 +2668,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2693,7 +2689,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2704,10 +2700,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2730,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2775,17 +2771,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2797,7 +2793,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2817,13 +2813,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -2833,7 +2829,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -2845,13 +2841,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2902,7 +2898,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2911,10 +2907,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -2934,13 +2930,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -2950,7 +2946,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -2962,13 +2958,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3019,7 +3015,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3028,10 +3024,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3051,13 +3047,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3067,7 +3063,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3079,13 +3075,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3136,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3145,10 +3141,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3168,14 +3164,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3188,25 +3184,25 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3255,7 +3251,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3267,7 +3263,7 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3276,7 +3272,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3287,10 +3283,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3313,13 +3309,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3370,7 +3366,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3382,30 +3378,30 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3413,31 +3409,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3463,55 +3459,55 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3519,10 +3515,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3533,7 +3529,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3545,16 +3541,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3580,52 +3576,52 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3636,10 +3632,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3647,31 +3643,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3697,64 +3693,64 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3762,28 +3758,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3834,31 +3830,31 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3866,10 +3862,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3880,7 +3876,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3892,13 +3888,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3949,31 +3945,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3981,10 +3977,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3992,31 +3988,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4066,42 +4062,42 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4112,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4124,13 +4120,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4181,19 +4177,19 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4202,10 +4198,10 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4213,10 +4209,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4227,28 +4223,28 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4298,31 +4294,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4330,10 +4326,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4344,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4356,16 +4352,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4391,55 +4387,55 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4447,10 +4443,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4461,7 +4457,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4473,13 +4469,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4530,31 +4526,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4562,10 +4558,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4576,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4588,13 +4584,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4645,42 +4641,42 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4691,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4703,13 +4699,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4760,42 +4756,42 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4806,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4818,13 +4814,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4875,28 +4871,28 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -4907,10 +4903,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4921,7 +4917,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4933,13 +4929,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4966,66 +4962,66 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5036,7 +5032,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5048,13 +5044,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5081,66 +5077,66 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5151,7 +5147,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5163,16 +5159,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5222,28 +5218,28 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5254,10 +5250,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5277,16 +5273,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5337,7 +5333,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5349,16 +5345,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5369,10 +5365,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5383,7 +5379,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5395,13 +5391,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5452,28 +5448,28 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5484,14 +5480,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5510,16 +5506,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5569,7 +5565,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5577,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5590,7 +5586,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5601,14 +5597,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5621,25 +5617,25 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N34" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5688,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5700,7 +5696,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5709,7 +5705,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5720,10 +5716,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5734,25 +5730,25 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5779,52 +5775,52 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5835,10 +5831,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5846,31 +5842,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5920,31 +5916,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5952,10 +5948,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5975,16 +5971,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6035,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6047,16 +6043,16 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6067,10 +6063,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6093,13 +6089,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6126,14 +6122,14 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6150,7 +6146,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6162,16 +6158,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6182,10 +6178,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6208,13 +6204,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6265,7 +6261,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6277,16 +6273,16 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6297,10 +6293,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6311,101 +6307,101 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6416,10 +6412,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6442,13 +6438,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6475,14 +6471,14 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6499,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6511,7 +6507,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6520,7 +6516,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6531,10 +6527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6557,13 +6553,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6614,7 +6610,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6626,7 +6622,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6635,7 +6631,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6646,10 +6642,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6660,7 +6656,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6672,13 +6668,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6729,28 +6725,28 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6761,14 +6757,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6787,16 +6783,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6846,7 +6842,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6858,7 +6854,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6867,7 +6863,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6878,14 +6874,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6898,25 +6894,25 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6965,7 +6961,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6977,7 +6973,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6986,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -6997,10 +6993,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7011,7 +7007,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7023,13 +7019,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7080,28 +7076,28 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7112,10 +7108,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7126,7 +7122,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7138,13 +7134,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7195,19 +7191,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7212,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7227,10 +7223,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7241,7 +7237,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7253,13 +7249,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7310,28 +7306,28 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7342,10 +7338,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7356,7 +7352,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7368,13 +7364,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7425,28 +7421,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7457,10 +7453,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7483,13 +7479,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7516,14 +7512,14 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7552,16 +7548,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7586,7 +7582,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7598,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7631,14 +7627,14 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7655,19 +7651,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7676,7 +7672,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7687,10 +7683,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7713,16 +7709,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7772,7 +7768,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7784,16 +7780,16 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7804,10 +7800,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7818,7 +7814,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7830,13 +7826,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7887,28 +7883,28 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7919,14 +7915,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7945,16 +7941,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8004,7 +8000,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8016,7 +8012,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8025,7 +8021,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8036,14 +8032,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8056,25 +8052,25 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8123,7 +8119,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8135,7 +8131,7 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8144,7 +8140,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8155,10 +8151,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8169,7 +8165,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8181,13 +8177,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8238,28 +8234,28 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8270,10 +8266,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8284,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8296,13 +8292,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8353,28 +8349,28 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8385,10 +8381,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8399,7 +8395,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8411,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8468,28 +8464,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8500,10 +8496,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8526,13 +8522,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8583,7 +8579,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8595,7 +8591,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8604,7 +8600,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8615,10 +8611,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8629,7 +8625,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8641,13 +8637,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8698,28 +8694,28 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8730,14 +8726,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8756,16 +8752,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8815,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8823,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -8836,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8847,14 +8843,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8867,25 +8863,25 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -8934,7 +8930,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8946,7 +8942,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -8955,7 +8951,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -8966,10 +8962,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8980,7 +8976,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -8992,13 +8988,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9049,19 +9045,19 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9070,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9081,10 +9077,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9095,7 +9091,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9107,13 +9103,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9164,19 +9160,19 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9185,7 +9181,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9196,10 +9192,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9222,13 +9218,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9255,14 +9251,14 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9279,7 +9275,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9291,7 +9287,7 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9300,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9311,10 +9307,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9322,10 +9318,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9337,16 +9333,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9396,19 +9392,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9417,7 +9413,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9428,10 +9424,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9442,7 +9438,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9454,16 +9450,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9513,19 +9509,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9534,7 +9530,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -296,10 +296,10 @@
     <t>このResourceに対する論理ID</t>
   </si>
   <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -312,16 +312,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -332,13 +332,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -351,19 +351,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -383,13 +383,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -409,13 +409,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -447,8 +447,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Immunization.extension:dueDateOfNextDose</t>
@@ -510,17 +510,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -533,10 +534,10 @@
 </t>
   </si>
   <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
+    <t>ビジネス識別子 / Business identifier</t>
+  </si>
+  <si>
+    <t>この予防接種記録に割り当てられた一意の識別子。 / A unique identifier assigned to this immunization record.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -554,13 +555,13 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t>completed | entered-in-error | not-done</t>
+    <t>完了|エラーに入った|まだ完成してない / completed | entered-in-error | not-done</t>
   </si>
   <si>
     <t>予防接種記録の現在の状態を示すコード</t>
   </si>
   <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>通常、予防接種が完了したか、行われていないことを示すように設定されます。この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -591,16 +592,16 @@
     <t>実施しなかった理由</t>
   </si>
   <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+    <t>予防接種イベントが実行されなかった理由を示します。 / Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>これは通常、「Not-Done」のステータスにのみ使用されます。予防接種イベントを実行する理由は、ここではなくReasonCodeでキャプチャされます。 / This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>The reason why a vaccine was not administered.</t>
+    <t>ワクチンが投与されなかった理由。 / The reason why a vaccine was not administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
@@ -705,7 +706,7 @@
     <t>ワクチンを接種した日あるいは接種予定だった日。</t>
   </si>
   <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+    <t>予防接種が与えられた場合、特定の日付と時間を常に把握する必要があります。予防接種が患者を報告する場合、特定の日付はわからないかもしれません。部分的な日付は許可されていますが、成人患者は小児期の予防接種が与えられた年を思い出すことができないかもしれません。正確な日付は常に望ましいですが、正確な日付が不明な場合、文字列データ型の使用は許容されます。少数のワクチン（たとえば、生きた経口腸チフスワクチンなど）は、一連の患者の自己投与量として、期間にわたって投与されます。このような場合、多くの場合、最初の用量（通常はプロバイダーの監督付き用量）のみが、最初の用量の日付/時刻を示す発生で記録されます。 / When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -733,7 +734,7 @@
     <t>予防接種を受けた対象者の記録として最初に記載された日</t>
   </si>
   <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+    <t>予防接種の発生の日付は、最初に記録に記録されました - イベントの発生後には潜在的に大幅に。 / The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].time</t>
@@ -749,13 +750,13 @@
 </t>
   </si>
   <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
+    <t>データが記録されたコンテキストを示します / Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>記録の内容は、ワクチンを投与した人からの情報に基づいていることを示しています。これは、データが最初に記録されたコンテキストを反映しています。 / An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>コンテンツの「信頼性」を反映しています。 / Reflects the “reliability” of the content.</t>
   </si>
   <si>
     <t>RXA-9</t>
@@ -776,10 +777,10 @@
     <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
   </si>
   <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
+    <t>PrimarySource = trueの場合、PrimarySource = falseであっても必須ではありません。 / Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>主要なソースからのものではないレコードのデータのソース。 / The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
@@ -882,7 +883,7 @@
     <t>ワクチンが接種された身体部位</t>
   </si>
   <si>
-    <t>The site at which the vaccine was administered.</t>
+    <t>ワクチンが投与されたサイト。 / The site at which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
@@ -906,7 +907,7 @@
     <t>ワクチンが体内へと接種された経路。</t>
   </si>
   <si>
-    <t>The route by which the vaccine was administered.</t>
+    <t>ワクチンが投与されたルート。 / The route by which the vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
@@ -937,8 +938,8 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -972,10 +973,10 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -987,10 +988,10 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1003,10 +1004,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1016,16 +1018,16 @@
     <t>Immunization.performer.function</t>
   </si>
   <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+    <t>どのような種類のパフォーマンスが行われました / What type of performance was done</t>
+  </si>
+  <si>
+    <t>パフォーマンスの種類（例：プロバイダーの注文、プロバイダーの管理など）について説明します。 / Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
+    <t>予防接種イベントで開業医または組織が果たす役割。 / The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
@@ -1044,13 +1046,13 @@
 </t>
   </si>
   <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+    <t>演奏していた個人または組織 / Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>アクションを実行した開業医または組織。 / The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>アクションを実行した個々の開業医が知られている場合、送信するのが最善です。 / When the individual practitioner who performed the action is known, it is best to send.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1093,7 +1095,7 @@
     <t>予防接種が行われた理由</t>
   </si>
   <si>
-    <t>The reason why a vaccine was administered.</t>
+    <t>ワクチンが投与された理由。 / The reason why a vaccine was administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
@@ -1130,10 +1132,10 @@
     <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
   </si>
   <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
+    <t>通常、投与後の線量であるための用量の認識は遡及的です（管理後の製造業者のリコールの通知）。ただし、部分的な投与の場合（患者は予期せず動き、いくつかの投与量のみが実際に投与されます）、サブポテンシーはすぐに認識される場合がありますが、イベントを記録することは依然として重要です。 / Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>デフォルトでは、用量は強力であると見なされる必要があります。 / By default, a dose should be considered to be potent.</t>
   </si>
   <si>
     <t>RXA-20 = PA (partial administration)</t>
@@ -1148,7 +1150,7 @@
     <t>効力が減弱すると考えられている理由。</t>
   </si>
   <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
+    <t>用量がサブポテントと見なされる理由。 / The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
@@ -1163,8 +1165,8 @@
     <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:DocumentTypeまたは参照の1つが存在するものとします / One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>Immunization.education.id</t>
@@ -1179,10 +1181,10 @@
     <t>Immunization.education.documentType</t>
   </si>
   <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
+    <t>教育資料文書識別子 / Educational material document identifier</t>
+  </si>
+  <si>
+    <t>患者に提示された材料の識別子。 / Identifier of the material presented to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 69764-9</t>
@@ -1191,19 +1193,19 @@
     <t>Immunization.education.reference</t>
   </si>
   <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+    <t>教育資料の参照ポインター / Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>情報がオンラインであった場合、患者に与えられた教育資料を参照してください。 / Reference pointer to the educational material given to the patient if the information was on line.</t>
   </si>
   <si>
     <t>Immunization.education.publicationDate</t>
   </si>
   <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
+    <t>教育資料の出版日 / Educational material publication date</t>
+  </si>
+  <si>
+    <t>日付教育資料が公開されました。 / Date the educational material was published.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29768-9</t>
@@ -1212,10 +1214,10 @@
     <t>Immunization.education.presentationDate</t>
   </si>
   <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
+    <t>教育資料の提示日 / Educational material presentation date</t>
+  </si>
+  <si>
+    <t>日付患者に教育資料が与えられました。 / Date the educational material was given to the patient.</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 29769-7</t>
@@ -1230,7 +1232,7 @@
     <t>ワクチン接種計画での患者適格性を示す</t>
   </si>
   <si>
-    <t>The patient's eligibility for a vaccation program.</t>
+    <t>患者の予防接種プログラムの適格性。 / The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
@@ -1248,7 +1250,7 @@
     <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
   </si>
   <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
+    <t>投与されたワクチンの購入に使用される資金源。 / The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
@@ -1263,7 +1265,7 @@
     <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
   </si>
   <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+    <t>反応はアレルギーまたは不耐性の兆候である可能性があり、これが事実であると判断された場合、ほとんどのシステムは過去の免疫要素に対して照会しないため、新しいアレルギー耐性リソースインスタンスとして記録する必要があります。 / A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
   </si>
   <si>
     <t>OBX-3</t>
@@ -1284,10 +1286,10 @@
     <t>Immunization.reaction.date</t>
   </si>
   <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
+    <t>反応が始まったとき / When reaction started</t>
+  </si>
+  <si>
+    <t>予防接種に対する反応日。 / Date of reaction to the immunization.</t>
   </si>
   <si>
     <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
@@ -1300,10 +1302,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
+    <t>反応に関する追加情報 / Additional information on reaction</t>
+  </si>
+  <si>
+    <t>反応の詳細。 / Details of the reaction.</t>
   </si>
   <si>
     <t>OBX-5</t>
@@ -1315,10 +1317,10 @@
     <t>Immunization.reaction.reported</t>
   </si>
   <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
+    <t>自己申告による反応を示します / Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>自己報告インジケーター。 / Self-reported indicator.</t>
   </si>
   <si>
     <t>(HL7 v2 doesn't seem to provide for this)</t>
@@ -1348,10 +1350,10 @@
     <t>Immunization.protocolApplied.series</t>
   </si>
   <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+    <t>ワクチンシリーズの名前 / Name of vaccine series</t>
+  </si>
+  <si>
+    <t>権威の文脈の中で、病気に対する免疫が推定される免疫を達成するための1つの可能な道。 / One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.authority</t>
@@ -1361,22 +1363,22 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for publishing the recommendations</t>
-  </si>
-  <si>
-    <t>Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
+    <t>推奨事項を公開する責任者は誰ですか / Who is responsible for publishing the recommendations</t>
+  </si>
+  <si>
+    <t>追跡されているプロトコル（ACIPなど）を公開した当局を示します。 / Indicates the authority who published the protocol (e.g. ACIP) that is being followed.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.targetDisease</t>
   </si>
   <si>
-    <t>Vaccine preventatable disease being targetted</t>
-  </si>
-  <si>
-    <t>The vaccine preventable disease the dose is being administered against.</t>
-  </si>
-  <si>
-    <t>The vaccine preventable disease the dose is being administered for.</t>
+    <t>ワクチン予防可能な病気が標的にされています / Vaccine preventatable disease being targetted</t>
+  </si>
+  <si>
+    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered against.</t>
+  </si>
+  <si>
+    <t>ワクチン予防可能な疾患用量が投与されています。 / The vaccine preventable disease the dose is being administered for.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
@@ -1389,22 +1391,22 @@
 string</t>
   </si>
   <si>
-    <t>Dose number within series</t>
-  </si>
-  <si>
-    <t>Nominal position in a series.</t>
-  </si>
-  <si>
-    <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
+    <t>シリーズ内の用量数 / Dose number within series</t>
+  </si>
+  <si>
+    <t>シリーズの名目上の位置。 / Nominal position in a series.</t>
+  </si>
+  <si>
+    <t>わかっている場合、整数の使用が好ましい。文字列は、整数が利用できない場合にのみ使用する必要があります（繰り返しブースター用量を文書化する場合など）。 / The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
   </si>
   <si>
-    <t>Recommended number of doses for immunity</t>
-  </si>
-  <si>
-    <t>The recommended number of doses to achieve immunity.</t>
+    <t>免疫のために推奨される用量数 / Recommended number of doses for immunity</t>
+  </si>
+  <si>
+    <t>免疫を達成するために推奨される用量の数。 / The recommended number of doses to achieve immunity.</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1746,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.9296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="65.4765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1737,16 +1741,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1757,10 +1761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1771,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1780,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1842,13 +1846,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1874,10 +1878,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1888,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1897,16 +1901,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1957,19 +1961,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1989,10 +1993,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2003,28 +2007,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2074,19 +2078,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2106,10 +2110,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2120,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2132,16 +2136,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2167,13 +2171,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2191,19 +2195,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2223,21 +2227,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2249,16 +2253,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2308,19 +2312,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2329,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2340,14 +2344,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2366,16 +2370,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2425,7 +2429,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2446,7 +2450,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2457,10 +2461,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2483,13 +2487,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2528,17 +2532,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2550,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2570,13 +2574,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2586,7 +2590,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2598,13 +2602,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2655,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2664,10 +2668,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2687,13 +2691,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2703,7 +2707,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2715,13 +2719,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2772,7 +2776,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2781,10 +2785,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2804,13 +2808,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2820,7 +2824,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2832,13 +2836,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2889,7 +2893,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2898,10 +2902,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2921,14 +2925,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2941,25 +2945,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3008,7 +3012,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3020,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3029,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3040,10 +3044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3066,13 +3070,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3123,7 +3127,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3135,30 +3139,30 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3166,31 +3170,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3216,13 +3220,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3240,31 +3244,31 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3272,10 +3276,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3286,7 +3290,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3298,16 +3302,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3333,13 +3337,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3357,28 +3361,28 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3400,10 +3404,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3412,19 +3416,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3450,11 +3454,11 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3472,42 +3476,42 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3515,10 +3519,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3527,16 +3531,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3587,31 +3591,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3619,10 +3623,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3633,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3645,13 +3649,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3702,31 +3706,31 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3734,10 +3738,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3745,10 +3749,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3757,19 +3761,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3819,42 +3823,42 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3865,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3877,13 +3881,13 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3934,19 +3938,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3955,10 +3959,10 @@
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -3966,10 +3970,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3980,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3989,19 +3993,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4051,31 +4055,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4083,10 +4087,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4097,7 +4101,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4109,16 +4113,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4144,13 +4148,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4168,31 +4172,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4200,10 +4204,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4214,7 +4218,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4226,13 +4230,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4283,31 +4287,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4315,10 +4319,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4329,7 +4333,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4341,13 +4345,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4398,42 +4402,42 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4444,7 +4448,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4456,13 +4460,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4513,42 +4517,42 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4559,7 +4563,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4571,13 +4575,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4628,28 +4632,28 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4660,10 +4664,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4674,7 +4678,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4686,13 +4690,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4719,13 +4723,13 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -4743,42 +4747,42 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4789,7 +4793,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4801,13 +4805,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4834,13 +4838,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4858,42 +4862,42 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4904,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4916,16 +4920,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4975,28 +4979,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5007,10 +5011,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5030,16 +5034,16 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5090,7 +5094,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5102,16 +5106,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5122,10 +5126,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5136,7 +5140,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5148,13 +5152,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5205,13 +5209,13 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
@@ -5226,7 +5230,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5237,14 +5241,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5263,16 +5267,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5322,7 +5326,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5334,7 +5338,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5343,7 +5347,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5354,14 +5358,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5374,25 +5378,25 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5441,7 +5445,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5453,7 +5457,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5462,7 +5466,7 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5473,10 +5477,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5487,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5496,16 +5500,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5532,13 +5536,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5556,28 +5560,28 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5588,10 +5592,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5599,10 +5603,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5611,19 +5615,19 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5673,31 +5677,31 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -5705,10 +5709,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5728,16 +5732,16 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5788,7 +5792,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5800,16 +5804,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5820,10 +5824,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5846,13 +5850,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5879,13 +5883,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -5903,7 +5907,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5915,16 +5919,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5935,10 +5939,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5961,13 +5965,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6018,7 +6022,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6030,16 +6034,16 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6050,10 +6054,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6064,35 +6068,35 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>38</v>
@@ -6137,28 +6141,28 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6169,10 +6173,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6195,13 +6199,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6228,13 +6232,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6252,7 +6256,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6264,7 +6268,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6273,7 +6277,7 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6284,10 +6288,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6310,13 +6314,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6367,7 +6371,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6379,7 +6383,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6388,7 +6392,7 @@
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6399,10 +6403,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6413,7 +6417,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6425,13 +6429,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6482,13 +6486,13 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
@@ -6503,7 +6507,7 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6514,14 +6518,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6540,16 +6544,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6599,7 +6603,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6611,7 +6615,7 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -6620,7 +6624,7 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6631,14 +6635,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6651,25 +6655,25 @@
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6718,7 +6722,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6730,7 +6734,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6739,7 +6743,7 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6750,10 +6754,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6764,7 +6768,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6776,13 +6780,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6833,28 +6837,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6865,10 +6869,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6879,7 +6883,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6891,13 +6895,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6948,19 +6952,19 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -6969,7 +6973,7 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6980,10 +6984,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6994,7 +6998,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7006,13 +7010,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7063,28 +7067,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7095,10 +7099,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7109,7 +7113,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7121,13 +7125,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7178,28 +7182,28 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7210,10 +7214,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7236,13 +7240,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7269,13 +7273,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7293,7 +7297,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7305,16 +7309,16 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7325,10 +7329,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7339,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7351,13 +7355,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7384,13 +7388,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7408,19 +7412,19 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7429,7 +7433,7 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7440,10 +7444,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7466,16 +7470,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7525,7 +7529,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7537,16 +7541,16 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7557,10 +7561,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7571,7 +7575,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7583,13 +7587,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7640,13 +7644,13 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
@@ -7661,7 +7665,7 @@
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7672,14 +7676,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7698,16 +7702,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7757,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7769,7 +7773,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7778,7 +7782,7 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7789,14 +7793,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7809,25 +7813,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7876,7 +7880,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7888,7 +7892,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7897,7 +7901,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7908,10 +7912,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7922,7 +7926,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7934,13 +7938,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7991,28 +7995,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8023,10 +8027,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8037,7 +8041,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8049,13 +8053,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8106,28 +8110,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8138,10 +8142,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8152,7 +8156,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8164,13 +8168,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8221,28 +8225,28 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8253,10 +8257,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8279,13 +8283,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8336,7 +8340,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8348,7 +8352,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8357,7 +8361,7 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8368,10 +8372,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8382,7 +8386,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8394,13 +8398,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8451,13 +8455,13 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
@@ -8472,7 +8476,7 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8483,14 +8487,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8509,16 +8513,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8568,7 +8572,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8580,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8589,7 +8593,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8600,14 +8604,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8620,25 +8624,25 @@
         <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8687,7 +8691,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8699,7 +8703,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8708,7 +8712,7 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8719,10 +8723,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8733,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8745,13 +8749,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8802,19 +8806,19 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8823,7 +8827,7 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -8834,10 +8838,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8848,7 +8852,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8860,13 +8864,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8917,19 +8921,19 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8938,7 +8942,7 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -8949,10 +8953,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8975,13 +8979,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9008,13 +9012,13 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9032,7 +9036,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9044,7 +9048,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9053,7 +9057,7 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9064,10 +9068,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9075,10 +9079,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9090,16 +9094,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9149,19 +9153,19 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9170,7 +9174,7 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9181,10 +9185,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9195,7 +9199,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9207,16 +9211,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9266,19 +9270,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9287,7 +9291,7 @@
         <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-immunization.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
